--- a/outcome/appendix/data/PHSMs/HEV.xlsx
+++ b/outcome/appendix/data/PHSMs/HEV.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">戊肝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>2950.90812414177</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>1626</v>
+      </c>
+      <c r="I2" t="n">
+        <v>812.106365303453</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +474,16 @@
         <v>3225.84582951722</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>1045</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1418.20692552543</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +506,16 @@
         <v>4037.444592259</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>1641</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1530.70841106961</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +538,16 @@
         <v>3498.01703176551</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>1732</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1012.2247694544</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +570,16 @@
         <v>3194.99704197752</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>1585</v>
+      </c>
+      <c r="I6" t="n">
+        <v>910.596318125112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +602,16 @@
         <v>2897.42363750735</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>1708</v>
+      </c>
+      <c r="I7" t="n">
+        <v>499.377282619725</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +634,16 @@
         <v>2919.95318259067</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>1759</v>
+      </c>
+      <c r="I8" t="n">
+        <v>452.790718751264</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +666,16 @@
         <v>2952.62653751647</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>1839</v>
+      </c>
+      <c r="I9" t="n">
+        <v>363.257517729832</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +698,16 @@
         <v>2770.00884027125</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>1811</v>
+      </c>
+      <c r="I10" t="n">
+        <v>178.690583986066</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +730,16 @@
         <v>2808.38045688609</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>1506</v>
+      </c>
+      <c r="I11" t="n">
+        <v>396.692513392825</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +762,16 @@
         <v>2988.87526636386</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>1639</v>
+      </c>
+      <c r="I12" t="n">
+        <v>375.528909391323</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +794,16 @@
         <v>3109.27682957277</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>1818</v>
+      </c>
+      <c r="I13" t="n">
+        <v>230.431644124766</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +826,16 @@
         <v>3754.73774357114</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>1838</v>
+      </c>
+      <c r="I14" t="n">
+        <v>642.237967349235</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +858,16 @@
         <v>3943.58640286358</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>1849</v>
+      </c>
+      <c r="I15" t="n">
+        <v>641.482134715654</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +890,16 @@
         <v>4662.71009229448</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>2991</v>
+      </c>
+      <c r="I16" t="n">
+        <v>94.1910541656421</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +922,16 @@
         <v>4095.01493071443</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>2797</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-96.5793052185008</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +954,16 @@
         <v>3772.17829277267</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>2509</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.66009438244282</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +986,16 @@
         <v>3462.49623002851</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>2266</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-5.16220087376405</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1018,16 @@
         <v>3471.8724965811</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>2140</v>
+      </c>
+      <c r="I20" t="n">
+        <v>103.30670118144</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1050,16 @@
         <v>3492.49712261458</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>2109</v>
+      </c>
+      <c r="I21" t="n">
+        <v>126.438379766194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1082,16 @@
         <v>3302.58192550518</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>2033</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-5.18247995095749</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1114,16 @@
         <v>3332.96002376232</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>1846</v>
+      </c>
+      <c r="I23" t="n">
+        <v>121.518078690045</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1146,16 @@
         <v>3503.79586079436</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>2055</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-8.92214859262231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1178,16 @@
         <v>3614.61272564035</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>2369</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-317.129684709285</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1210,16 @@
         <v>4242.33354595497</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>2530</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-61.345721078319</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1242,16 @@
         <v>4416.26746868663</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>2443</v>
+      </c>
+      <c r="I27" t="n">
+        <v>29.179801017342</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1274,16 @@
         <v>5112.01262542601</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>3131</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-59.1016701965323</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1306,16 @@
         <v>4535.94873401355</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>2525</v>
+      </c>
+      <c r="I29" t="n">
+        <v>157.556039781126</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1338,16 @@
         <v>4206.874458259</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>2503</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.73415980247091</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1370,16 @@
         <v>3893.39596051235</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>2411</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-110.652478698116</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1402,16 @@
         <v>3898.35888890717</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>2225</v>
+      </c>
+      <c r="I32" t="n">
+        <v>55.2794786105974</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1434,16 @@
         <v>3914.75168840736</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>2255</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-8.8148327067388</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1466,16 @@
         <v>3722.39823786071</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>1946</v>
+      </c>
+      <c r="I34" t="n">
+        <v>110.019736537256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1498,16 @@
         <v>3749.9584575135</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>1683</v>
+      </c>
+      <c r="I35" t="n">
+        <v>305.139950257358</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1530,16 @@
         <v>3917.12806146822</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>1732</v>
+      </c>
+      <c r="I36" t="n">
+        <v>354.361109224424</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/HEV.xlsx
+++ b/outcome/appendix/data/PHSMs/HEV.xlsx
@@ -427,10 +427,10 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2438.10636530345</v>
+        <v>2463.99988665567</v>
       </c>
       <c r="C2" t="n">
-        <v>2142.83733549957</v>
+        <v>2216.65904346581</v>
       </c>
       <c r="D2" t="n">
         <v>2062.98904334702</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>812.106365303453</v>
+        <v>837.999886655667</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2463.20692552543</v>
+        <v>2493.53017122208</v>
       </c>
       <c r="C3" t="n">
         <v>2078.74141718271</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1418.20692552543</v>
+        <v>1448.53017122208</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3171.70841106961</v>
+        <v>3140.19059822048</v>
       </c>
       <c r="C4" t="n">
         <v>2735.65378094199</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1530.70841106961</v>
+        <v>1499.19059822048</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2744.2247694544</v>
+        <v>2793.2413277255</v>
       </c>
       <c r="C5" t="n">
         <v>2077.04210790505</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1012.2247694544</v>
+        <v>1061.2413277255</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2495.59631812511</v>
+        <v>2510.79682119007</v>
       </c>
       <c r="C6" t="n">
         <v>1681.61740771392</v>
@@ -564,7 +564,7 @@
         <v>1364.88422452361</v>
       </c>
       <c r="E6" t="n">
-        <v>2894.45789652362</v>
+        <v>2948.27073528256</v>
       </c>
       <c r="F6" t="n">
         <v>3194.99704197752</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>910.596318125112</v>
+        <v>925.796821190067</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2207.37728261972</v>
+        <v>2215.66422211013</v>
       </c>
       <c r="C7" t="n">
         <v>1319.9816146304</v>
@@ -596,7 +596,7 @@
         <v>989.840900501452</v>
       </c>
       <c r="E7" t="n">
-        <v>2676.07635616917</v>
+        <v>2689.67101475131</v>
       </c>
       <c r="F7" t="n">
         <v>2897.42363750735</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>499.377282619725</v>
+        <v>507.66422211013</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2211.79071875126</v>
+        <v>2207.34739887864</v>
       </c>
       <c r="C8" t="n">
         <v>1271.14622140898</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>452.790718751264</v>
+        <v>448.347398878637</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2202.25751772983</v>
+        <v>2200.65363627939</v>
       </c>
       <c r="C9" t="n">
         <v>1235.26211837585</v>
@@ -672,7 +672,7 @@
         <v>1839</v>
       </c>
       <c r="I9" t="n">
-        <v>363.257517729832</v>
+        <v>361.653636279389</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1989.69058398607</v>
+        <v>1971.59073620673</v>
       </c>
       <c r="C10" t="n">
         <v>1004.60682935535</v>
@@ -692,7 +692,7 @@
         <v>635.128222753067</v>
       </c>
       <c r="E10" t="n">
-        <v>2455.74425533186</v>
+        <v>2400.53023366898</v>
       </c>
       <c r="F10" t="n">
         <v>2770.00884027125</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>178.690583986066</v>
+        <v>160.590736206728</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1902.69251339282</v>
+        <v>1883.84214086669</v>
       </c>
       <c r="C11" t="n">
         <v>989.817581621219</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>396.692513392825</v>
+        <v>377.842140866694</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2014.52890939132</v>
+        <v>1984.31249852478</v>
       </c>
       <c r="C12" t="n">
         <v>1106.95617493871</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>375.528909391323</v>
+        <v>345.312498524778</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2048.43164412477</v>
+        <v>2022.04378156186</v>
       </c>
       <c r="C13" t="n">
         <v>1160.6451028876</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>230.431644124766</v>
+        <v>204.043781561859</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2480.23796734924</v>
+        <v>2451.11920283536</v>
       </c>
       <c r="C14" t="n">
         <v>1691.06310632793</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>642.237967349235</v>
+        <v>613.11920283536</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2490.48213471565</v>
+        <v>2490.93823284803</v>
       </c>
       <c r="C15" t="n">
         <v>1772.68872892835</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>641.482134715654</v>
+        <v>641.938232848035</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3085.19105416564</v>
+        <v>3074.42474065905</v>
       </c>
       <c r="C16" t="n">
         <v>2326.81464574761</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>94.1910541656421</v>
+        <v>83.4247406590484</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2700.4206947815</v>
+        <v>2803.13941900993</v>
       </c>
       <c r="C17" t="n">
         <v>1686.68616358173</v>
@@ -928,10 +928,10 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>-96.5793052185008</v>
+        <v>6.13941900992586</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2514.66009438244</v>
+        <v>2547.88835429881</v>
       </c>
       <c r="C18" t="n">
         <v>1304.21887315202</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>5.66009438244282</v>
+        <v>38.8883542988051</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2260.83779912624</v>
+        <v>2252.05921992532</v>
       </c>
       <c r="C19" t="n">
         <v>950.500506148813</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>-5.16220087376405</v>
+        <v>-13.9407800746799</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2243.30670118144</v>
+        <v>2207.01481155257</v>
       </c>
       <c r="C20" t="n">
         <v>910.265579479874</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>103.30670118144</v>
+        <v>67.0148115525699</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2235.43837976619</v>
+        <v>2198.39616228715</v>
       </c>
       <c r="C21" t="n">
         <v>882.259716810639</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>126.438379766194</v>
+        <v>89.3961622871529</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2027.81752004904</v>
+        <v>2018.09638144214</v>
       </c>
       <c r="C22" t="n">
         <v>656.376006476923</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>-5.18247995095749</v>
+        <v>-14.9036185578586</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1967.51807869005</v>
+        <v>1915.18697096348</v>
       </c>
       <c r="C23" t="n">
         <v>646.813439460566</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>121.518078690045</v>
+        <v>69.1869709634818</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2046.07785140738</v>
+        <v>1993.83662912126</v>
       </c>
       <c r="C24" t="n">
         <v>770.267695390738</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-8.92214859262231</v>
+        <v>-61.1633708787388</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2051.87031529071</v>
+        <v>2035.26984473438</v>
       </c>
       <c r="C25" t="n">
         <v>830.223720739982</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-317.129684709285</v>
+        <v>-333.730155265618</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2468.65427892168</v>
+        <v>2452.34939123822</v>
       </c>
       <c r="C26" t="n">
         <v>1372.24134795536</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-61.345721078319</v>
+        <v>-77.6506087617754</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2472.17980101734</v>
+        <v>2480.42566627296</v>
       </c>
       <c r="C27" t="n">
         <v>1463.61919260675</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>29.179801017342</v>
+        <v>37.4256662729563</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3071.89832980347</v>
+        <v>3068.58119603389</v>
       </c>
       <c r="C28" t="n">
         <v>2033.0315103024</v>
@@ -1280,7 +1280,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-59.1016701965323</v>
+        <v>-62.4188039661149</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2682.55603978113</v>
+        <v>2750.19237155792</v>
       </c>
       <c r="C29" t="n">
         <v>1398.3750464506</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>157.556039781126</v>
+        <v>225.192371557918</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2506.73415980247</v>
+        <v>2575.07425669176</v>
       </c>
       <c r="C30" t="n">
         <v>1019.98632816168</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>3.73415980247091</v>
+        <v>72.0742566917647</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2300.34752130188</v>
+        <v>2284.80354310973</v>
       </c>
       <c r="C31" t="n">
         <v>668.750316578925</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-110.652478698116</v>
+        <v>-126.196456890269</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2280.2794786106</v>
+        <v>2232.45027017353</v>
       </c>
       <c r="C32" t="n">
         <v>631.40111662231</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>55.2794786105974</v>
+        <v>7.45027017353004</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2246.18516729326</v>
+        <v>2198.72026095208</v>
       </c>
       <c r="C33" t="n">
         <v>606.162296593461</v>
@@ -1440,7 +1440,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-8.8148327067388</v>
+        <v>-56.2797390479163</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2056.01973653726</v>
+        <v>2015.76189304305</v>
       </c>
       <c r="C34" t="n">
         <v>381.872874488689</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>110.019736537256</v>
+        <v>69.7618930430515</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1988.13995025736</v>
+        <v>1933.99653935694</v>
       </c>
       <c r="C35" t="n">
         <v>374.152819255914</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>305.139950257358</v>
+        <v>250.996539356942</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2086.36110922442</v>
+        <v>2014.65766441476</v>
       </c>
       <c r="C36" t="n">
         <v>500.004296143697</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>354.361109224424</v>
+        <v>282.657664414765</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/HEV.xlsx
+++ b/outcome/appendix/data/PHSMs/HEV.xlsx
@@ -427,10 +427,10 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2463.99988665567</v>
+        <v>2438.10636530345</v>
       </c>
       <c r="C2" t="n">
-        <v>2216.65904346581</v>
+        <v>2142.83733549957</v>
       </c>
       <c r="D2" t="n">
         <v>2062.98904334702</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>837.999886655667</v>
+        <v>812.106365303453</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2493.53017122208</v>
+        <v>2463.20692552543</v>
       </c>
       <c r="C3" t="n">
         <v>2078.74141718271</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1448.53017122208</v>
+        <v>1418.20692552543</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3140.19059822048</v>
+        <v>3171.70841106961</v>
       </c>
       <c r="C4" t="n">
         <v>2735.65378094199</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1499.19059822048</v>
+        <v>1530.70841106961</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2793.2413277255</v>
+        <v>2744.2247694544</v>
       </c>
       <c r="C5" t="n">
         <v>2077.04210790505</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1061.2413277255</v>
+        <v>1012.2247694544</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2510.79682119007</v>
+        <v>2495.59631812511</v>
       </c>
       <c r="C6" t="n">
         <v>1681.61740771392</v>
@@ -564,7 +564,7 @@
         <v>1364.88422452361</v>
       </c>
       <c r="E6" t="n">
-        <v>2948.27073528256</v>
+        <v>2894.45789652362</v>
       </c>
       <c r="F6" t="n">
         <v>3194.99704197752</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>925.796821190067</v>
+        <v>910.596318125112</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2215.66422211013</v>
+        <v>2207.37728261972</v>
       </c>
       <c r="C7" t="n">
         <v>1319.9816146304</v>
@@ -596,7 +596,7 @@
         <v>989.840900501452</v>
       </c>
       <c r="E7" t="n">
-        <v>2689.67101475131</v>
+        <v>2676.07635616917</v>
       </c>
       <c r="F7" t="n">
         <v>2897.42363750735</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>507.66422211013</v>
+        <v>499.377282619725</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2207.34739887864</v>
+        <v>2211.79071875126</v>
       </c>
       <c r="C8" t="n">
         <v>1271.14622140898</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>448.347398878637</v>
+        <v>452.790718751264</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2200.65363627939</v>
+        <v>2202.25751772983</v>
       </c>
       <c r="C9" t="n">
         <v>1235.26211837585</v>
@@ -672,7 +672,7 @@
         <v>1839</v>
       </c>
       <c r="I9" t="n">
-        <v>361.653636279389</v>
+        <v>363.257517729832</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1971.59073620673</v>
+        <v>1989.69058398607</v>
       </c>
       <c r="C10" t="n">
         <v>1004.60682935535</v>
@@ -692,7 +692,7 @@
         <v>635.128222753067</v>
       </c>
       <c r="E10" t="n">
-        <v>2400.53023366898</v>
+        <v>2455.74425533186</v>
       </c>
       <c r="F10" t="n">
         <v>2770.00884027125</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>160.590736206728</v>
+        <v>178.690583986066</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1883.84214086669</v>
+        <v>1902.69251339282</v>
       </c>
       <c r="C11" t="n">
         <v>989.817581621219</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>377.842140866694</v>
+        <v>396.692513392825</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1984.31249852478</v>
+        <v>2014.52890939132</v>
       </c>
       <c r="C12" t="n">
         <v>1106.95617493871</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>345.312498524778</v>
+        <v>375.528909391323</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2022.04378156186</v>
+        <v>2048.43164412477</v>
       </c>
       <c r="C13" t="n">
         <v>1160.6451028876</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>204.043781561859</v>
+        <v>230.431644124766</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2451.11920283536</v>
+        <v>2480.23796734924</v>
       </c>
       <c r="C14" t="n">
         <v>1691.06310632793</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>613.11920283536</v>
+        <v>642.237967349235</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2490.93823284803</v>
+        <v>2490.48213471565</v>
       </c>
       <c r="C15" t="n">
         <v>1772.68872892835</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>641.938232848035</v>
+        <v>641.482134715654</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3074.42474065905</v>
+        <v>3085.19105416564</v>
       </c>
       <c r="C16" t="n">
         <v>2326.81464574761</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>83.4247406590484</v>
+        <v>94.1910541656421</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2803.13941900993</v>
+        <v>2700.4206947815</v>
       </c>
       <c r="C17" t="n">
         <v>1686.68616358173</v>
@@ -928,10 +928,10 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>6.13941900992586</v>
+        <v>-96.5793052185008</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2547.88835429881</v>
+        <v>2514.66009438244</v>
       </c>
       <c r="C18" t="n">
         <v>1304.21887315202</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>38.8883542988051</v>
+        <v>5.66009438244282</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2252.05921992532</v>
+        <v>2260.83779912624</v>
       </c>
       <c r="C19" t="n">
         <v>950.500506148813</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>-13.9407800746799</v>
+        <v>-5.16220087376405</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2207.01481155257</v>
+        <v>2243.30670118144</v>
       </c>
       <c r="C20" t="n">
         <v>910.265579479874</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>67.0148115525699</v>
+        <v>103.30670118144</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2198.39616228715</v>
+        <v>2235.43837976619</v>
       </c>
       <c r="C21" t="n">
         <v>882.259716810639</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>89.3961622871529</v>
+        <v>126.438379766194</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2018.09638144214</v>
+        <v>2027.81752004904</v>
       </c>
       <c r="C22" t="n">
         <v>656.376006476923</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>-14.9036185578586</v>
+        <v>-5.18247995095749</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1915.18697096348</v>
+        <v>1967.51807869005</v>
       </c>
       <c r="C23" t="n">
         <v>646.813439460566</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>69.1869709634818</v>
+        <v>121.518078690045</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1993.83662912126</v>
+        <v>2046.07785140738</v>
       </c>
       <c r="C24" t="n">
         <v>770.267695390738</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-61.1633708787388</v>
+        <v>-8.92214859262231</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2035.26984473438</v>
+        <v>2051.87031529071</v>
       </c>
       <c r="C25" t="n">
         <v>830.223720739982</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-333.730155265618</v>
+        <v>-317.129684709285</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2452.34939123822</v>
+        <v>2468.65427892168</v>
       </c>
       <c r="C26" t="n">
         <v>1372.24134795536</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-77.6506087617754</v>
+        <v>-61.345721078319</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2480.42566627296</v>
+        <v>2472.17980101734</v>
       </c>
       <c r="C27" t="n">
         <v>1463.61919260675</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>37.4256662729563</v>
+        <v>29.179801017342</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3068.58119603389</v>
+        <v>3071.89832980347</v>
       </c>
       <c r="C28" t="n">
         <v>2033.0315103024</v>
@@ -1280,7 +1280,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-62.4188039661149</v>
+        <v>-59.1016701965323</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2750.19237155792</v>
+        <v>2682.55603978113</v>
       </c>
       <c r="C29" t="n">
         <v>1398.3750464506</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>225.192371557918</v>
+        <v>157.556039781126</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2575.07425669176</v>
+        <v>2506.73415980247</v>
       </c>
       <c r="C30" t="n">
         <v>1019.98632816168</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>72.0742566917647</v>
+        <v>3.73415980247091</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2284.80354310973</v>
+        <v>2300.34752130188</v>
       </c>
       <c r="C31" t="n">
         <v>668.750316578925</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-126.196456890269</v>
+        <v>-110.652478698116</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2232.45027017353</v>
+        <v>2280.2794786106</v>
       </c>
       <c r="C32" t="n">
         <v>631.40111662231</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>7.45027017353004</v>
+        <v>55.2794786105974</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2198.72026095208</v>
+        <v>2246.18516729326</v>
       </c>
       <c r="C33" t="n">
         <v>606.162296593461</v>
@@ -1440,7 +1440,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-56.2797390479163</v>
+        <v>-8.8148327067388</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2015.76189304305</v>
+        <v>2056.01973653726</v>
       </c>
       <c r="C34" t="n">
         <v>381.872874488689</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>69.7618930430515</v>
+        <v>110.019736537256</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1933.99653935694</v>
+        <v>1988.13995025736</v>
       </c>
       <c r="C35" t="n">
         <v>374.152819255914</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>250.996539356942</v>
+        <v>305.139950257358</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2014.65766441476</v>
+        <v>2086.36110922442</v>
       </c>
       <c r="C36" t="n">
         <v>500.004296143697</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>282.657664414765</v>
+        <v>354.361109224424</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
